--- a/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9525" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9525" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="부가 목표" sheetId="2" r:id="rId2"/>
     <sheet name="부가 미션 리스트" sheetId="3" r:id="rId3"/>
     <sheet name="추가 보상" sheetId="4" r:id="rId4"/>
+    <sheet name="추가 보상 리스트" sheetId="8" r:id="rId5"/>
+    <sheet name="메인 목표" sheetId="5" r:id="rId6"/>
+    <sheet name="메인 보상 리스트" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -306,6 +309,46 @@
   </si>
   <si>
     <t xml:space="preserve">  - 부가미션은 달성한 다음 메인 미션을 클리어한후 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 목표를 지정하여 유저에게 성장과 진행경로에 대한 고민 유도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 목표은 강제되며 3가지 선택안을 제공함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 목표는 미션의 클리어 조건 이여야함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 미션이 시작될때 메인 목표를 표시함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 미션은 한가지를 선택할 수 있고 한가지 보상을 제공받음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 미션은 꼭 클리어 해야됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 미션 클리어후 포탈에 접촉하여 다음 미션을 받을시 현재 메인목표는 제거됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 미션이 클리어 되기 전까지 포탈이 활성화 되지 않아야함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 보상 리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -866,6 +909,152 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114925" y="6410325"/>
+          <a:ext cx="2238375" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>미션 내용과 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>진행도</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>부가 미션</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>추가 보상</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="6496049"/>
+          <a:ext cx="1314450" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -1258,7 +1447,7 @@
   <dimension ref="B2:M44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:M12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1636,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2022,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2375,4 +2564,480 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="48.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9525" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9525" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="81">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -104,251 +104,255 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가 목표는 미션의 메인목표와 연관이있는 목표 여야함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가 목표와 보상으로 추가적인 도전을 유도하기 위한 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 미션과 별개로 추가로 받은 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가 미션 표시 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가 미션 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 섬멸 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 방어 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 생존 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 파괴 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>느려!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달성 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬멸미션중 맞지 않기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">N회 이하 피격 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠른 시간내에 모든 적 처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어 시간1분 이하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠, 빨라!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 제한적으로 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 N회만 사용하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내힘에 10%만 내주지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금 "진심"으로 할까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 사용하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 1회 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 재 잔상입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 사용하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 N회 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 추가 보상 표시 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가미션은 강제가 아니라 선택으로 유저의 스트레스 최소화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 미션의 클리어 조건으로 무조건 달성해야 하는 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 플레이하는 멥의 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 스테이지 안에서 해야할 과제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메인 목표를 달성하고 활성화된 포탈로 이동시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 게임의 추가 목표에 보상을 주어 플레이에 변화를 주는 기능.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 유저에게 다른 플레이 방식에 대한 동기와 플레이에 대한 고민을 유도.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 추가 보상을 주어 보상에 대한 재미와 달성감을 증폭시키는 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가 미션에 따라 보상이 달라짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가 미션을 달성하고 클리어 시 보상 획득됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가 미션은 강제성을 뛰지않아 클리어 하지 않아도 진행에 불이익이 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가미션은 달성한 다음 메인 미션을 클리어한후 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 목표를 지정하여 유저에게 성장과 진행경로에 대한 고민 유도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 목표은 강제되며 3가지 선택안을 제공함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 목표는 미션의 클리어 조건 이여야함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 미션이 시작될때 메인 목표를 표시함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 미션은 한가지를 선택할 수 있고 한가지 보상을 제공받음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 미션은 꼭 클리어 해야됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 미션 클리어후 포탈에 접촉하여 다음 미션을 받을시 현재 메인목표는 제거됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 메인 미션이 클리어 되기 전까지 포탈이 활성화 되지 않아야함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 보상 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>부가 목표, 추가 보상 시스템 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 부가 목표는 미션의 메인목표와 연관이있는 목표 여야함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 부가 목표와 보상으로 추가적인 도전을 유도하기 위한 기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부가 목표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 미션과 별개로 추가로 받은 목표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 부가 미션 표시 UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부가 미션 리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 섬멸 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 방어 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 생존 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 파괴 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등장 확률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>느려!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>달성 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>섬멸미션중 맞지 않기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">N회 이하 피격 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠른 시간내에 모든 적 처치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클리어 시간1분 이하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠, 빨라!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 제한적으로 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 N회만 사용하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내힘에 10%만 내주지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조금 "진심"으로 할까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 사용하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 1회 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그건 재 잔상입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 사용하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 N회 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 추가 보상 표시 UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 부가미션은 강제가 아니라 선택으로 유저의 스트레스 최소화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 목표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클리어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 미션의 클리어 조건으로 무조건 달성해야 하는 목표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저가 플레이하는 멥의 단위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저가 스테이지 안에서 해야할 과제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">메인 목표를 달성하고 활성화된 포탈로 이동시 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 게임의 추가 목표에 보상을 주어 플레이에 변화를 주는 기능.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 유저에게 다른 플레이 방식에 대한 동기와 플레이에 대한 고민을 유도.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 추가 보상을 주어 보상에 대한 재미와 달성감을 증폭시키는 기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 부가 미션에 따라 보상이 달라짐.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 부가 미션을 달성하고 클리어 시 보상 획득됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 부가 미션은 강제성을 뛰지않아 클리어 하지 않아도 진행에 불이익이 없음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 부가미션은 달성한 다음 메인 미션을 클리어한후 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 목표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 메인 목표를 지정하여 유저에게 성장과 진행경로에 대한 고민 유도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 메인 목표은 강제되며 3가지 선택안을 제공함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 메인 목표는 미션의 클리어 조건 이여야함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 미션이 시작될때 메인 목표를 표시함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 메인 미션은 한가지를 선택할 수 있고 한가지 보상을 제공받음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 메인 미션은 꼭 클리어 해야됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 메인 미션 클리어후 포탈에 접촉하여 다음 미션을 받을시 현재 메인목표는 제거됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 메인 미션이 클리어 되기 전까지 포탈이 활성화 되지 않아야함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 보상 리스트</t>
+    <t>추가 보상 리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1321,7 +1325,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1334,7 +1338,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -1479,40 +1483,40 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
@@ -1520,21 +1524,21 @@
         <v>9</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -1574,7 +1578,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1589,12 +1593,12 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
@@ -1825,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1841,26 +1845,26 @@
   <sheetData>
     <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -1868,65 +1872,65 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1947,19 +1951,19 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -2030,19 +2034,19 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>3</v>
@@ -2120,19 +2124,19 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>3</v>
@@ -2212,7 +2216,7 @@
   <dimension ref="B2:M44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2224,7 +2228,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -2234,47 +2238,47 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
@@ -2282,40 +2286,40 @@
         <v>9</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -2335,12 +2339,12 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
@@ -2568,388 +2572,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="48.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C28"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2964,7 +2590,756 @@
   <sheetData>
     <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="48.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -2972,16 +3347,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>

--- a/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9525" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -353,6 +353,126 @@
   </si>
   <si>
     <t>추가 보상 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 보상 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회복형 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 버프형 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 게이지 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 상승시킴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력을 상승시킴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 회복율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 회복율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 쿨타임 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신외 모든 스킬 쿨타임 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 HP 상승</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신게이지를 끝까지 올려줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 계수 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스킬의 계수 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 최대치 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 최대치 상승</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력회복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP를 회복시킴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,6 +723,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,7 +1130,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1016,8 +1139,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5562600" y="6496049"/>
-          <a:ext cx="1314450" cy="523875"/>
+          <a:off x="5562600" y="6286499"/>
+          <a:ext cx="1314450" cy="438151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1829,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2216,7 +2339,7 @@
   <dimension ref="B2:M44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2572,18 +2695,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F62"/>
+  <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="29.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="5" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
   </cols>
@@ -2595,7 +2718,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -2606,10 +2729,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -2617,67 +2740,77 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="D7" s="4">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="D11" s="4">
+        <v>100</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -2687,272 +2820,85 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2960,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3321,19 +3267,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F13"/>
+  <dimension ref="B3:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="5" customWidth="1"/>
+    <col min="4" max="5" width="13.125" style="5" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3343,7 +3288,9 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -3353,20 +3300,28 @@
         <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -3376,40 +3331,124 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="19" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="4">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9525" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -473,6 +473,14 @@
   </si>
   <si>
     <t>HP를 회복시킴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐기된 내용 적용 버프밸런스 수정중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -887,10 +895,139 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="119062"/>
+          <a:ext cx="11887200" cy="9953625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="87000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="4800"/>
+            <a:t>폐기된 내용</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="277091"/>
+          <a:ext cx="8711045" cy="13335000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="87000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="4800"/>
+            <a:t>폐기된 내용</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1033,10 +1170,139 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>240846</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>8164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="240846" y="40821"/>
+          <a:ext cx="11842296" cy="9723664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="87000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="4800"/>
+            <a:t>폐기된 내용</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="47625"/>
+          <a:ext cx="9906000" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="87000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="4800"/>
+            <a:t>폐기된 내용</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1048,8 +1314,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1058,8 +1324,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5114925" y="6410325"/>
-          <a:ext cx="2238375" cy="857250"/>
+          <a:off x="5114925" y="6200775"/>
+          <a:ext cx="2238375" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1099,21 +1365,6 @@
             <a:t>진행도</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>부가 미션</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>추가 보상</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1448,7 +1699,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1491,9 +1742,15 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="6">
+        <v>43741</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -1573,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1952,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2331,6 +2588,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2338,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2698,7 +2956,7 @@
   <dimension ref="B3:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2899,6 +3157,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2906,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3270,7 +3529,7 @@
   <dimension ref="B3:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3421,7 +3680,7 @@
         <v>105</v>
       </c>
       <c r="D16" s="20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>91</v>
@@ -3436,7 +3695,7 @@
         <v>107</v>
       </c>
       <c r="D17" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>108</v>

--- a/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9525" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
-    <sheet name="부가 목표" sheetId="2" r:id="rId2"/>
-    <sheet name="부가 미션 리스트" sheetId="3" r:id="rId3"/>
-    <sheet name="추가 보상" sheetId="4" r:id="rId4"/>
+    <sheet name="메인 목표" sheetId="5" r:id="rId2"/>
+    <sheet name="메인 보상 리스트" sheetId="6" r:id="rId3"/>
+    <sheet name="부가 목표" sheetId="2" r:id="rId4"/>
     <sheet name="추가 보상 리스트" sheetId="8" r:id="rId5"/>
-    <sheet name="메인 목표" sheetId="5" r:id="rId6"/>
-    <sheet name="메인 보상 리스트" sheetId="6" r:id="rId7"/>
+    <sheet name="추가 보상" sheetId="4" r:id="rId6"/>
+    <sheet name="부가 미션 리스트" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -758,6 +758,137 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114925" y="6200775"/>
+          <a:ext cx="2238375" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>미션 내용과 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>진행도</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="6286499"/>
+          <a:ext cx="1314450" cy="438151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
@@ -960,20 +1091,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>277090</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -982,8 +1113,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="277091"/>
-          <a:ext cx="8711045" cy="13335000"/>
+          <a:off x="123825" y="47625"/>
+          <a:ext cx="9906000" cy="4143375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1027,7 +1158,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1235,20 +1366,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1257,8 +1388,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123825" y="47625"/>
-          <a:ext cx="9906000" cy="4143375"/>
+          <a:off x="381000" y="277091"/>
+          <a:ext cx="8711045" cy="13335000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,137 +1425,6 @@
             <a:rPr lang="ko-KR" altLang="en-US" sz="4800"/>
             <a:t>폐기된 내용</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5114925" y="6200775"/>
-          <a:ext cx="2238375" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>미션 내용과 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>진행도</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5562600" y="6286499"/>
-          <a:ext cx="1314450" cy="438151"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1699,7 +1699,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1828,10 +1828,628 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="48.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="5" customWidth="1"/>
+    <col min="4" max="5" width="13.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="4">
+        <v>100</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="4">
+        <v>150</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="B2:M44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+      <selection activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2205,754 +2823,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F62"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M44"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="48.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="B3:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3163,22 +3038,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M43"/>
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="48.875" customWidth="1"/>
+    <col min="13" max="13" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -3188,143 +3066,128 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>19</v>
+      <c r="L8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L9" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="L10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
       <c r="L11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -3336,7 +3199,7 @@
       <c r="J28" s="13"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -3348,7 +3211,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -3360,7 +3223,7 @@
       <c r="J30" s="13"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -3372,7 +3235,7 @@
       <c r="J31" s="13"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -3504,65 +3367,80 @@
       <c r="J42" s="13"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17"/>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F18"/>
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="B3:F62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="48.5" style="5" customWidth="1"/>
-    <col min="4" max="5" width="13.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -3570,147 +3448,342 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="4">
-        <v>100</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
-        <v>84</v>
-      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="4">
-        <v>150</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="114">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -481,6 +481,10 @@
   </si>
   <si>
     <t>폐기된 내용 적용 버프밸런스 수정중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격력 증가: </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2193,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2309,131 +2313,122 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
-        <v>84</v>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D29" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="4">
-        <v>-1</v>
+        <v>105</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0.2</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="20">
-        <v>0.2</v>
+        <v>107</v>
+      </c>
+      <c r="D32" s="4">
+        <v>150</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="4">
-        <v>150</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -428,14 +428,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">스킬 쿨타임 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신외 모든 스킬 쿨타임 감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>체력증가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -448,14 +440,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 계수 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 스킬의 계수 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>생명력 최대치 증가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -484,7 +468,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">공격력 증가: </t>
+    <t xml:space="preserve"> - 스킬 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬_1_공격력 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬_1_충전 갯수 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 번의 최대 충전 개수를 증가시킴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1번의 계수 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬_2_범위 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬_2_ 공격력 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2번의 계수 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬_3_ 공격력 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번의 계수 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬_3_ 회전 속도 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번의 좌우 회전하는 속도 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2번의 범위 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 계산식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 계산식: (기본값+(추가값*중첩수))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 계산은 가장 먼저 계산 합니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,6 +798,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1750,10 +1813,10 @@
         <v>43741</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -2195,10 +2258,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F34"/>
+  <dimension ref="B3:F41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2276,119 +2339,89 @@
         <v>76</v>
       </c>
     </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="4">
         <v>100</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="4">
-        <v>5</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="4">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D30" s="4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>90</v>
@@ -2397,42 +2430,150 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0.2</v>
+        <v>94</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D32" s="4">
         <v>150</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2868,10 +3009,10 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="4">
         <v>50</v>
@@ -2928,10 +3069,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D11" s="4">
         <v>100</v>

--- a/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\MC\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187C0869-A433-4B99-AE88-A1CF8B04C453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -551,8 +552,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +609,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -730,12 +739,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,8 +814,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="경고문" xfId="1" builtinId="11"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -836,7 +852,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -902,7 +924,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -967,7 +995,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvPr id="5" name="직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1048,7 +1082,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1108,7 +1148,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1175,7 +1221,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1242,7 +1294,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1323,7 +1381,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1383,7 +1447,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1450,7 +1520,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1762,7 +1838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1894,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2257,11 +2333,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2481,19 +2557,19 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="22">
         <v>2</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
@@ -2578,7 +2654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -2960,7 +3036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -3173,7 +3249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -3535,7 +3611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>

--- a/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_부가 목표, 추가 보상.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -476,14 +476,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스킬_1_충전 갯수 강화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 번의 최대 충전 개수를 증가시킴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정수형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -492,10 +484,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스킬_2_범위 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬_2_ 공격력 강화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -528,14 +516,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2번의 범위 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 계산식</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -545,6 +525,14 @@
   </si>
   <si>
     <t>버프 계산은 가장 먼저 계산 합니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬_1_팅김 횟수 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 번의 팅겨 공격하는횟수 증가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2258,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F41"/>
+  <dimension ref="B3:F40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2341,17 +2329,17 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -2482,16 +2470,16 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="F36" s="4"/>
     </row>
@@ -2500,75 +2488,60 @@
         <v>110</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="20">
         <v>0.4</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="4">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="D38" s="20">
+        <v>0.25</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="20">
-        <v>0.25</v>
+        <v>118</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0.1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
